--- a/saved-xlsx/Ordonnance.xlsx
+++ b/saved-xlsx/Ordonnance.xlsx
@@ -687,7 +687,7 @@
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Abdennebi Moundher</t>
+          <t>abdennebi moundher</t>
         </is>
       </c>
       <c r="L8" s="5" t="n"/>
@@ -699,7 +699,7 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>12-04-2023</t>
+          <t>13-04-2023</t>
         </is>
       </c>
       <c r="P8" s="5" t="n"/>
@@ -779,7 +779,9 @@
       <c r="K13" s="18" t="inlineStr">
         <is>
           <t>ROVAMYCINE (SP)
-FLAGYL 500 mg (CP)</t>
+CLAMOXYL 1 g (CP)
+CLAMOXYL 1 g (INJ)
+FLAGYL 250 mg (CP)</t>
         </is>
       </c>
       <c r="P13" s="1" t="n"/>

--- a/saved-xlsx/Ordonnance.xlsx
+++ b/saved-xlsx/Ordonnance.xlsx
@@ -778,10 +778,9 @@
       <c r="J13" s="12" t="n"/>
       <c r="K13" s="18" t="inlineStr">
         <is>
-          <t>ROVAMYCINE (SP)
-CLAMOXYL 1 g (CP)
-CLAMOXYL 1 g (INJ)
-FLAGYL 250 mg (CP)</t>
+          <t>CLAMOXYL 500 mg (SIROP) - 1 cuillère * 2/j
+SOLUMEDROL 40 mg (INJ) - 1inj*1/j LE MATIN
+MAXTRIT BDB - 01 BTE - 1BDB * 2/J</t>
         </is>
       </c>
       <c r="P13" s="1" t="n"/>

--- a/saved-xlsx/Ordonnance.xlsx
+++ b/saved-xlsx/Ordonnance.xlsx
@@ -778,9 +778,8 @@
       <c r="J13" s="12" t="n"/>
       <c r="K13" s="18" t="inlineStr">
         <is>
-          <t>CLAMOXYL 500 mg (SIROP) - 1 cuillère * 2/j
-SOLUMEDROL 40 mg (INJ) - 1inj*1/j LE MATIN
-MAXTRIT BDB - 01 BTE - 1BDB * 2/J</t>
+          <t>AUGMENTIN 500 mg (SH)
+CLOFENAL 25 mg (SUPP)</t>
         </is>
       </c>
       <c r="P13" s="1" t="n"/>
